--- a/admin/project_documents/li_bangkok_config.xlsx
+++ b/admin/project_documents/li_bangkok_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ind_bangkok\admin\project_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\ind_lancet\admin\project_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD462BE7-0DFB-4E47-8929-42A77F256385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0779474-D29D-4F95-B7AA-0201CE39E697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{CEEBC2D6-9E16-419D-AFB3-474A6DD9A925}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12012" xr2:uid="{CEEBC2D6-9E16-419D-AFB3-474A6DD9A925}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="16" r:id="rId1"/>
@@ -3840,9 +3840,6 @@
     <t xml:space="preserve">The note itself </t>
   </si>
   <si>
-    <t>Carl Higgs, 21 January 2018</t>
-  </si>
-  <si>
     <t>This worksheet provides a catalogue of project resources compiled by Carl Higgs, Amanda Alderton, and Hannah Badland in coordination with the Bangkok Metropolitan Administration, 2019</t>
   </si>
   <si>
@@ -3850,6 +3847,9 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>Carl Higgs, 21 January 2019</t>
   </si>
 </sst>
 </file>
@@ -4773,48 +4773,48 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="107.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="107.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>449</v>
       </c>
       <c r="B1" s="74"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="77" t="s">
         <v>451</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>454</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="82" t="s">
         <v>38</v>
@@ -4843,7 +4843,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="82" t="s">
         <v>5</v>
@@ -4852,7 +4852,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="82" t="s">
         <v>893</v>
@@ -4861,7 +4861,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="82" t="s">
         <v>889</v>
@@ -4870,7 +4870,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="82" t="s">
         <v>890</v>
@@ -4879,12 +4879,12 @@
         <v>897</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="84"/>
       <c r="B18" s="85"/>
       <c r="C18" s="86"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
         <v>453</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="76"/>
       <c r="B20" s="76" t="s">
         <v>381</v>
@@ -4902,7 +4902,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="76"/>
       <c r="B21" s="76" t="s">
         <v>382</v>
@@ -4911,7 +4911,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="76"/>
       <c r="B22" s="76" t="s">
         <v>238</v>
@@ -4920,7 +4920,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="76"/>
       <c r="B23" s="76" t="s">
         <v>246</v>
@@ -4929,7 +4929,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="76"/>
       <c r="B24" s="76" t="s">
         <v>251</v>
@@ -4938,7 +4938,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="76"/>
       <c r="B25" s="76" t="s">
         <v>386</v>
@@ -4947,7 +4947,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="76"/>
       <c r="B26" s="76" t="s">
         <v>224</v>
@@ -4956,7 +4956,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="76" t="s">
         <v>222</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="76" t="s">
         <v>221</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="76" t="s">
         <v>269</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="76" t="s">
         <v>1</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="76" t="s">
         <v>239</v>
       </c>
@@ -4996,12 +4996,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="84"/>
       <c r="B32" s="85"/>
       <c r="C32" s="86"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
         <v>911</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="76"/>
       <c r="B34" s="76" t="s">
         <v>1011</v>
@@ -5019,7 +5019,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="76" t="s">
         <v>1010</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="76" t="s">
         <v>1009</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="76" t="s">
         <v>560</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="76" t="s">
         <v>561</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="76" t="s">
         <v>2</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="76" t="s">
         <v>562</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="76" t="s">
         <v>3</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="76" t="s">
         <v>563</v>
       </c>
@@ -5083,12 +5083,12 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
       <c r="C43" s="86"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="75" t="s">
         <v>1179</v>
       </c>
@@ -5097,24 +5097,24 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C46" s="14"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="84"/>
       <c r="B47" s="85"/>
       <c r="C47" s="86"/>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="75" t="s">
         <v>1181</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" s="76" t="s">
         <v>68</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>69</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>70</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>71</v>
       </c>
@@ -5155,12 +5155,12 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
       <c r="C53" s="86"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="75" t="s">
         <v>1</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="76" t="s">
         <v>226</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>228</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>227</v>
       </c>
@@ -5213,18 +5213,18 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="56" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5" max="51" width="3.85546875" style="5" customWidth="1"/>
-    <col min="52" max="52" width="83.5703125" style="18" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
+    <col min="5" max="51" width="3.88671875" style="5" customWidth="1"/>
+    <col min="52" max="52" width="83.5546875" style="18" customWidth="1"/>
+    <col min="53" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="AY1" s="102"/>
       <c r="AZ1" s="29"/>
     </row>
-    <row r="2" spans="1:52" s="27" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="27" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5438,7 +5438,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>456</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>456</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>39</v>
       </c>
@@ -5710,13 +5710,13 @@
       <c r="AW6" s="36"/>
       <c r="AX6" s="36"/>
       <c r="AY6" s="72" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AZ6" s="37" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>456</v>
       </c>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="AZ7" s="37"/>
     </row>
-    <row r="8" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>456</v>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="AZ8" s="37"/>
     </row>
-    <row r="9" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>456</v>
       </c>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="AZ9" s="37"/>
     </row>
-    <row r="10" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>39</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>39</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>39</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:52" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>39</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="14" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>456</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>456</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>39</v>
       </c>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="AZ16" s="37"/>
     </row>
-    <row r="17" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>456</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="AZ17" s="37"/>
     </row>
-    <row r="18" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>39</v>
       </c>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="AZ18" s="37"/>
     </row>
-    <row r="19" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>39</v>
       </c>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="AZ19" s="37"/>
     </row>
-    <row r="20" spans="1:52" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>39</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>39</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>40</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>40</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>456</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="AZ24" s="37"/>
     </row>
-    <row r="25" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>456</v>
       </c>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="AZ25" s="37"/>
     </row>
-    <row r="26" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>40</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>40</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:52" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" s="33" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>40</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="29" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>40</v>
       </c>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="AZ29" s="37"/>
     </row>
-    <row r="30" spans="1:52" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>40</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>40</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="32" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>40</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>40</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:52" s="33" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" s="33" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>40</v>
       </c>
@@ -7684,7 +7684,7 @@
       </c>
       <c r="AZ34" s="37"/>
     </row>
-    <row r="35" spans="1:52" s="33" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" s="33" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>41</v>
       </c>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="AZ35" s="37"/>
     </row>
-    <row r="36" spans="1:52" s="33" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" s="33" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>41</v>
       </c>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="AZ36" s="37"/>
     </row>
-    <row r="37" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>41</v>
       </c>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="AZ37" s="37"/>
     </row>
-    <row r="38" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>41</v>
       </c>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="AZ38" s="37"/>
     </row>
-    <row r="39" spans="1:52" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
         <v>41</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="40" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>41</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="41" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
         <v>41</v>
       </c>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="AZ41" s="37"/>
     </row>
-    <row r="42" spans="1:52" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" s="33" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>41</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:52" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" s="33" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>41</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>41</v>
       </c>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="AZ44" s="37"/>
     </row>
-    <row r="45" spans="1:52" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>41</v>
       </c>
@@ -8502,7 +8502,7 @@
       <c r="AY45" s="72"/>
       <c r="AZ45" s="37"/>
     </row>
-    <row r="46" spans="1:52" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
         <v>456</v>
       </c>
@@ -8604,21 +8604,21 @@
       <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
-    <col min="3" max="3" width="103.85546875" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="103.88671875" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="49.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>381</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>365</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>364</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>367</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>244</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>243</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>245</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>544</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>513</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>256</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>423</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>279</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>527</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>284</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>526</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>286</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>287</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>288</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>289</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>290</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>525</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>292</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>293</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>294</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>295</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>297</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>298</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>299</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>300</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>301</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>302</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>303</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>304</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>335</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>336</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>337</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>338</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>551</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>342</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>546</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>384</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>547</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>523</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>522</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>387</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>393</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>399</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>411</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>412</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>541</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>543</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>539</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>439</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>518</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>514</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>519</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>515</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>528</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>529</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>530</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>531</v>
       </c>
@@ -10561,18 +10561,18 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>486</v>
       </c>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>532</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>537</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>516</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>517</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>521</v>
       </c>
@@ -10755,14 +10755,14 @@
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>501</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="22"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>538</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>504</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>512</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>511</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>510</v>
       </c>
@@ -10925,18 +10925,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="19" customWidth="1"/>
-    <col min="2" max="3" width="76.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
-    <col min="5" max="7" width="17.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="101" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.5546875" style="19" customWidth="1"/>
+    <col min="2" max="3" width="76.5546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
+    <col min="5" max="7" width="17.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="101" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>557</v>
       </c>
@@ -10946,7 +10946,7 @@
       <c r="H1" s="87"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>377</v>
       </c>
@@ -10959,7 +10959,7 @@
       <c r="H2" s="87"/>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>378</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="H3" s="87"/>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>558</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="H4" s="87"/>
       <c r="I4" s="42"/>
     </row>
-    <row r="5" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>559</v>
       </c>
@@ -10994,7 +10994,7 @@
       <c r="H5" s="87"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
@@ -11002,7 +11002,7 @@
       <c r="H6" s="87"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
@@ -11010,7 +11010,7 @@
       <c r="H7" s="87"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>1011</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>564</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>564</v>
       </c>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>564</v>
       </c>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>564</v>
       </c>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>564</v>
       </c>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>564</v>
       </c>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="J14" s="48"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>564</v>
       </c>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>564</v>
       </c>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>564</v>
       </c>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>564</v>
       </c>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>564</v>
       </c>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>564</v>
       </c>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>564</v>
       </c>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>564</v>
       </c>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>564</v>
       </c>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>623</v>
       </c>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53" t="s">
         <v>623</v>
       </c>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>623</v>
       </c>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>623</v>
       </c>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="J27" s="48"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>623</v>
       </c>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="J28" s="48"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="53" t="s">
         <v>623</v>
       </c>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="J29" s="48"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>623</v>
       </c>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="J30" s="48"/>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
         <v>623</v>
       </c>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="J31" s="48"/>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
         <v>623</v>
       </c>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J32" s="48"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
         <v>623</v>
       </c>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="J33" s="48"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
         <v>623</v>
       </c>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="J34" s="48"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="53" t="s">
         <v>623</v>
       </c>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="J35" s="48"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="51" t="s">
         <v>623</v>
       </c>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J36" s="48"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
         <v>623</v>
       </c>
@@ -11905,7 +11905,7 @@
       </c>
       <c r="J37" s="48"/>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>623</v>
       </c>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="J38" s="48"/>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>623</v>
       </c>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="J39" s="48"/>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>623</v>
       </c>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="J40" s="48"/>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="53" t="s">
         <v>623</v>
       </c>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>623</v>
       </c>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J42" s="48"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
         <v>51</v>
       </c>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="J43" s="48"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="51" t="s">
         <v>51</v>
       </c>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="J44" s="48"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>51</v>
       </c>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="J45" s="48"/>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>51</v>
       </c>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="J46" s="48"/>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
         <v>51</v>
       </c>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="J47" s="48"/>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
         <v>51</v>
       </c>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="J48" s="48"/>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
         <v>51</v>
       </c>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="J49" s="48"/>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
         <v>51</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="J50" s="48"/>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
         <v>51</v>
       </c>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="J51" s="48"/>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>51</v>
       </c>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="J52" s="48"/>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>51</v>
       </c>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="J53" s="48"/>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>51</v>
       </c>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="J54" s="48"/>
     </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
         <v>51</v>
       </c>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="J55" s="48"/>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="49" t="s">
         <v>51</v>
       </c>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="J56" s="48"/>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
         <v>51</v>
       </c>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="J57" s="48"/>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="49" t="s">
         <v>51</v>
       </c>
@@ -12535,7 +12535,7 @@
       </c>
       <c r="J58" s="48"/>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
         <v>51</v>
       </c>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="J59" s="48"/>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>51</v>
       </c>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="J60" s="48"/>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
         <v>51</v>
       </c>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="J61" s="48"/>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="49" t="s">
         <v>51</v>
       </c>
@@ -12655,7 +12655,7 @@
       </c>
       <c r="J62" s="48"/>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55" t="s">
         <v>51</v>
       </c>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="J63" s="48"/>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="51" t="s">
         <v>763</v>
       </c>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="J64" s="48"/>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="58" t="s">
         <v>763</v>
       </c>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="J65" s="48"/>
     </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="51" t="s">
         <v>763</v>
       </c>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="J66" s="48"/>
     </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
         <v>763</v>
       </c>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="J67" s="48"/>
     </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="51" t="s">
         <v>763</v>
       </c>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="J68" s="48"/>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="58" t="s">
         <v>763</v>
       </c>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="J69" s="48"/>
     </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="51" t="s">
         <v>763</v>
       </c>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="I70" s="52"/>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="58" t="s">
         <v>763</v>
       </c>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="J71" s="48"/>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
         <v>787</v>
       </c>
@@ -12952,7 +12952,7 @@
       </c>
       <c r="J72" s="48"/>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="51" t="s">
         <v>787</v>
       </c>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="J73" s="48"/>
     </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
         <v>787</v>
       </c>
@@ -13012,7 +13012,7 @@
       </c>
       <c r="J74" s="48"/>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="51" t="s">
         <v>787</v>
       </c>
@@ -13042,7 +13042,7 @@
       </c>
       <c r="J75" s="48"/>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
         <v>787</v>
       </c>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="J76" s="48"/>
     </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="51" t="s">
         <v>787</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="J77" s="48"/>
     </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
         <v>787</v>
       </c>
@@ -13132,7 +13132,7 @@
       </c>
       <c r="J78" s="48"/>
     </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="51" t="s">
         <v>787</v>
       </c>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="J79" s="48"/>
     </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="63" t="s">
         <v>817</v>
       </c>
@@ -13192,7 +13192,7 @@
       </c>
       <c r="J80" s="48"/>
     </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="51" t="s">
         <v>817</v>
       </c>
@@ -13222,7 +13222,7 @@
       </c>
       <c r="J81" s="48"/>
     </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="63" t="s">
         <v>817</v>
       </c>
@@ -13252,7 +13252,7 @@
       </c>
       <c r="J82" s="48"/>
     </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="51" t="s">
         <v>817</v>
       </c>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="J83" s="48"/>
     </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="63" t="s">
         <v>817</v>
       </c>
@@ -13312,7 +13312,7 @@
       </c>
       <c r="J84" s="48"/>
     </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="51" t="s">
         <v>817</v>
       </c>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="J85" s="48"/>
     </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="63" t="s">
         <v>817</v>
       </c>
@@ -13372,7 +13372,7 @@
       </c>
       <c r="J86" s="48"/>
     </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="51" t="s">
         <v>817</v>
       </c>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="J87" s="48"/>
     </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="65" t="s">
         <v>840</v>
       </c>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="J88" s="48"/>
     </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="51" t="s">
         <v>840</v>
       </c>
@@ -13462,7 +13462,7 @@
       </c>
       <c r="J89" s="48"/>
     </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="s">
         <v>840</v>
       </c>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="J90" s="48"/>
     </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
         <v>840</v>
       </c>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="J91" s="48"/>
     </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="65" t="s">
         <v>840</v>
       </c>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="J92" s="48"/>
     </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="49" t="s">
         <v>840</v>
       </c>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="J93" s="48"/>
     </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="s">
         <v>840</v>
       </c>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="J94" s="48"/>
     </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="67" t="s">
         <v>861</v>
       </c>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="J95" s="48"/>
     </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="51" t="s">
         <v>861</v>
       </c>
@@ -13672,7 +13672,7 @@
       </c>
       <c r="J96" s="48"/>
     </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="67" t="s">
         <v>861</v>
       </c>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="J97" s="48"/>
     </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="51" t="s">
         <v>861</v>
       </c>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="J98" s="48"/>
     </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="67" t="s">
         <v>861</v>
       </c>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="J99" s="48"/>
     </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="51" t="s">
         <v>861</v>
       </c>
@@ -13790,7 +13790,7 @@
       </c>
       <c r="J100" s="48"/>
     </row>
-    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="67" t="s">
         <v>861</v>
       </c>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="J101" s="48"/>
     </row>
-    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="69" t="s">
         <v>861</v>
       </c>
@@ -13861,13 +13861,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="95.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>257</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>535</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>533</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>405</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>542</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>266</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>548</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>478</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>404</v>
       </c>
@@ -14014,15 +14014,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="54.5546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>156</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>182</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>185</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>199</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -14855,13 +14855,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="13"/>
+    <col min="1" max="2" width="9.109375" style="13"/>
     <col min="3" max="3" width="71" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>226</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>20181130</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>20181211</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>20181211</v>
       </c>

--- a/admin/project_documents/li_bangkok_config.xlsx
+++ b/admin/project_documents/li_bangkok_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\ind_lancet\admin\project_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ind_bangkok\admin\project_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0779474-D29D-4F95-B7AA-0201CE39E697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360C2EE5-3481-4A52-A110-59217B815A3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12012" xr2:uid="{CEEBC2D6-9E16-419D-AFB3-474A6DD9A925}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{CEEBC2D6-9E16-419D-AFB3-474A6DD9A925}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="16" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BMA data'!$F$8:$I$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">datasets!$A$1:$L$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">datasets!$A$1:$L$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">glossary!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">indicators!#REF!</definedName>
   </definedNames>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="1196">
   <si>
     <t>year</t>
   </si>
@@ -2877,9 +2877,6 @@
   </si>
   <si>
     <t>This has been interpreted as sub-district population divided by district population (ie.  the proportion of district population living in sub-district).</t>
-  </si>
-  <si>
-    <t>Please check with BMA if they have better data for this (e.g. more recent, or more relevant)</t>
   </si>
   <si>
     <t>We can estimate this from the 2010 census age group data, if we thought it useful.  But if this is of interest and official statistics for this are directly available, that would be preferable.  (Please check with BMA)</t>
@@ -3850,6 +3847,12 @@
   </si>
   <si>
     <t>Carl Higgs, 21 January 2019</t>
+  </si>
+  <si>
+    <t>Please check with BMA if they have a data source for this item at the district / subdistrict level</t>
+  </si>
+  <si>
+    <t>Please check with BMA if they have better / preferred data for this (e.g. more recent, or more relevant)</t>
   </si>
 </sst>
 </file>
@@ -4772,425 +4775,425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F41659C-9572-46D4-815E-F31989A14EB8}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="107.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="107.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>449</v>
       </c>
       <c r="B1" s="74"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>451</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>454</v>
       </c>
       <c r="B12" s="80"/>
       <c r="C12" s="81" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="82" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="82" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="82" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="82" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
       <c r="B18" s="85"/>
       <c r="C18" s="86"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
         <v>453</v>
       </c>
       <c r="B19" s="76"/>
       <c r="C19" s="15" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="76" t="s">
         <v>381</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="76" t="s">
         <v>382</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="76" t="s">
         <v>238</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
       <c r="B23" s="76" t="s">
         <v>246</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="76" t="s">
         <v>251</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
       <c r="B25" s="76" t="s">
         <v>386</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
       <c r="B26" s="76" t="s">
         <v>224</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
         <v>222</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="76" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="76" t="s">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="84"/>
       <c r="B32" s="85"/>
       <c r="C32" s="86"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="75" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B33" s="76"/>
       <c r="C33" s="15" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="76"/>
       <c r="B34" s="76" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="76" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="76" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="76" t="s">
         <v>560</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
         <v>561</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="76" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="76" t="s">
         <v>562</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="76" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="76" t="s">
         <v>563</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
       <c r="C43" s="86"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="75" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B44" s="76"/>
       <c r="C44" s="15" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C46" s="14"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="84"/>
       <c r="B47" s="85"/>
       <c r="C47" s="86"/>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="75" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B48" s="76"/>
       <c r="C48" s="15" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="76" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
       <c r="C53" s="86"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="75" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="76"/>
       <c r="C54" s="15" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="76" t="s">
         <v>226</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -5207,24 +5210,24 @@
   <dimension ref="A1:AZ46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="AE45" sqref="AE45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="18" customWidth="1"/>
     <col min="3" max="3" width="56" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
-    <col min="5" max="51" width="3.88671875" style="5" customWidth="1"/>
-    <col min="52" max="52" width="83.5546875" style="18" customWidth="1"/>
-    <col min="53" max="16384" width="9.109375" style="4"/>
+    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
+    <col min="5" max="51" width="3.85546875" style="5" customWidth="1"/>
+    <col min="52" max="52" width="83.5703125" style="18" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -5288,7 +5291,7 @@
       <c r="AY1" s="102"/>
       <c r="AZ1" s="29"/>
     </row>
-    <row r="2" spans="1:52" s="27" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="27" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5425,7 +5428,7 @@
       <c r="AV2" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="AW2" s="28" t="s">
+      <c r="AW2" s="26" t="s">
         <v>556</v>
       </c>
       <c r="AX2" s="28" t="s">
@@ -5438,7 +5441,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>456</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>456</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>39</v>
       </c>
@@ -5710,13 +5713,13 @@
       <c r="AW6" s="36"/>
       <c r="AX6" s="36"/>
       <c r="AY6" s="72" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AZ6" s="37" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>456</v>
       </c>
@@ -5782,7 +5785,7 @@
       </c>
       <c r="AZ7" s="37"/>
     </row>
-    <row r="8" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>456</v>
       </c>
@@ -5848,7 +5851,7 @@
       </c>
       <c r="AZ8" s="37"/>
     </row>
-    <row r="9" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>456</v>
       </c>
@@ -5914,7 +5917,7 @@
       </c>
       <c r="AZ9" s="37"/>
     </row>
-    <row r="10" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>39</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>39</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>39</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:52" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>39</v>
       </c>
@@ -6203,10 +6206,10 @@
         <v>63</v>
       </c>
       <c r="AZ13" s="37" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>456</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>456</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>39</v>
       </c>
@@ -6416,7 +6419,7 @@
       </c>
       <c r="AZ16" s="37"/>
     </row>
-    <row r="17" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>456</v>
       </c>
@@ -6492,7 +6495,7 @@
       </c>
       <c r="AZ17" s="37"/>
     </row>
-    <row r="18" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>39</v>
       </c>
@@ -6568,7 +6571,7 @@
       </c>
       <c r="AZ18" s="37"/>
     </row>
-    <row r="19" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>39</v>
       </c>
@@ -6644,7 +6647,7 @@
       </c>
       <c r="AZ19" s="37"/>
     </row>
-    <row r="20" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>39</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>39</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>40</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>40</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>456</v>
       </c>
@@ -6988,7 +6991,7 @@
       </c>
       <c r="AZ24" s="37"/>
     </row>
-    <row r="25" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>456</v>
       </c>
@@ -7056,7 +7059,7 @@
       </c>
       <c r="AZ25" s="37"/>
     </row>
-    <row r="26" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>40</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>40</v>
       </c>
@@ -7196,7 +7199,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:52" s="33" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>40</v>
       </c>
@@ -7263,10 +7266,10 @@
         <v>63</v>
       </c>
       <c r="AZ28" s="37" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="29" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>40</v>
       </c>
@@ -7334,7 +7337,7 @@
       </c>
       <c r="AZ29" s="37"/>
     </row>
-    <row r="30" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>40</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>40</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="32" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>40</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>40</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:52" s="33" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" s="33" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>40</v>
       </c>
@@ -7684,7 +7687,7 @@
       </c>
       <c r="AZ34" s="37"/>
     </row>
-    <row r="35" spans="1:52" s="33" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:52" s="33" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>41</v>
       </c>
@@ -7762,7 +7765,7 @@
       </c>
       <c r="AZ35" s="37"/>
     </row>
-    <row r="36" spans="1:52" s="33" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" s="33" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>41</v>
       </c>
@@ -7840,7 +7843,7 @@
       </c>
       <c r="AZ36" s="37"/>
     </row>
-    <row r="37" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>41</v>
       </c>
@@ -7918,7 +7921,7 @@
       </c>
       <c r="AZ37" s="37"/>
     </row>
-    <row r="38" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>41</v>
       </c>
@@ -7996,7 +7999,7 @@
       </c>
       <c r="AZ38" s="37"/>
     </row>
-    <row r="39" spans="1:52" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>41</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="40" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>41</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="41" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>41</v>
       </c>
@@ -8200,7 +8203,7 @@
       </c>
       <c r="AZ41" s="37"/>
     </row>
-    <row r="42" spans="1:52" s="33" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>41</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:52" s="33" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>41</v>
       </c>
@@ -8362,7 +8365,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="1:52" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>41</v>
       </c>
@@ -8438,7 +8441,7 @@
       </c>
       <c r="AZ44" s="37"/>
     </row>
-    <row r="45" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>41</v>
       </c>
@@ -8497,12 +8500,14 @@
       <c r="AT45" s="36"/>
       <c r="AU45" s="36"/>
       <c r="AV45" s="36"/>
-      <c r="AW45" s="36"/>
+      <c r="AW45" s="38"/>
       <c r="AX45" s="36"/>
       <c r="AY45" s="72"/>
-      <c r="AZ45" s="37"/>
-    </row>
-    <row r="46" spans="1:52" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AZ45" s="37" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>456</v>
       </c>
@@ -8598,27 +8603,28 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
-    <col min="3" max="3" width="103.88671875" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="103.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1"/>
-    <col min="11" max="11" width="49.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>381</v>
       </c>
@@ -8650,18 +8656,18 @@
         <v>269</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D2" t="s">
         <v>369</v>
@@ -8685,13 +8691,13 @@
         <v>1000</v>
       </c>
       <c r="K2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" t="s">
         <v>236</v>
       </c>
-      <c r="L2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>371</v>
@@ -8723,18 +8729,18 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" t="s">
         <v>236</v>
       </c>
-      <c r="L3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>368</v>
@@ -8758,18 +8764,18 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" t="s">
         <v>236</v>
       </c>
-      <c r="L4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D5" t="s">
         <v>370</v>
@@ -8793,18 +8799,18 @@
         <v>1000</v>
       </c>
       <c r="K5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" t="s">
         <v>236</v>
       </c>
-      <c r="L5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D6" t="s">
         <v>247</v>
@@ -8828,12 +8834,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D7" t="s">
         <v>248</v>
@@ -8857,12 +8863,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D8" t="s">
         <v>249</v>
@@ -8885,11 +8891,11 @@
       <c r="J8" t="s">
         <v>271</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>544</v>
       </c>
@@ -8897,7 +8903,7 @@
         <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D9" t="s">
         <v>250</v>
@@ -8921,7 +8927,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>513</v>
       </c>
@@ -8938,18 +8944,18 @@
         <v>273</v>
       </c>
       <c r="K10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" t="s">
         <v>344</v>
       </c>
-      <c r="L10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>372</v>
@@ -8972,16 +8978,16 @@
       <c r="J11" t="s">
         <v>273</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>423</v>
       </c>
       <c r="C12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>377</v>
@@ -9004,16 +9010,16 @@
       <c r="J12" t="s">
         <v>273</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>358</v>
@@ -9033,11 +9039,11 @@
       <c r="I13" t="s">
         <v>359</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>527</v>
       </c>
@@ -9045,7 +9051,7 @@
         <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D14" t="s">
         <v>305</v>
@@ -9069,12 +9075,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D15" t="s">
         <v>306</v>
@@ -9098,7 +9104,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>526</v>
       </c>
@@ -9106,7 +9112,7 @@
         <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D16" t="s">
         <v>282</v>
@@ -9130,12 +9136,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>286</v>
       </c>
       <c r="C17" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D17" t="s">
         <v>307</v>
@@ -9159,12 +9165,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D18" t="s">
         <v>308</v>
@@ -9188,12 +9194,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D19" t="s">
         <v>309</v>
@@ -9217,12 +9223,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>289</v>
       </c>
       <c r="C20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D20" t="s">
         <v>310</v>
@@ -9246,12 +9252,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D21" t="s">
         <v>311</v>
@@ -9275,7 +9281,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>525</v>
       </c>
@@ -9283,7 +9289,7 @@
         <v>291</v>
       </c>
       <c r="C22" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D22" t="s">
         <v>312</v>
@@ -9307,12 +9313,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D23" t="s">
         <v>313</v>
@@ -9336,12 +9342,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D24" t="s">
         <v>314</v>
@@ -9365,12 +9371,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D25" t="s">
         <v>315</v>
@@ -9394,12 +9400,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D26" t="s">
         <v>316</v>
@@ -9423,7 +9429,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -9431,7 +9437,7 @@
         <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D27" t="s">
         <v>317</v>
@@ -9455,12 +9461,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>297</v>
       </c>
       <c r="C28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D28" t="s">
         <v>318</v>
@@ -9484,12 +9490,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D29" t="s">
         <v>319</v>
@@ -9513,12 +9519,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>299</v>
       </c>
       <c r="C30" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D30" t="s">
         <v>320</v>
@@ -9542,12 +9548,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D31" t="s">
         <v>321</v>
@@ -9571,12 +9577,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D32" t="s">
         <v>322</v>
@@ -9600,12 +9606,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>302</v>
       </c>
       <c r="C33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D33" t="s">
         <v>323</v>
@@ -9629,12 +9635,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D34" t="s">
         <v>324</v>
@@ -9658,12 +9664,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>325</v>
@@ -9687,12 +9693,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>335</v>
       </c>
       <c r="C36" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D36" t="s">
         <v>326</v>
@@ -9716,12 +9722,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D37" t="s">
         <v>327</v>
@@ -9745,12 +9751,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>337</v>
       </c>
       <c r="C38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D38" t="s">
         <v>328</v>
@@ -9774,12 +9780,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>338</v>
       </c>
       <c r="C39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D39" t="s">
         <v>329</v>
@@ -9803,7 +9809,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>551</v>
       </c>
@@ -9811,7 +9817,7 @@
         <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D40" t="s">
         <v>330</v>
@@ -9835,12 +9841,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D41" t="s">
         <v>333</v>
@@ -9864,7 +9870,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -9872,7 +9878,7 @@
         <v>345</v>
       </c>
       <c r="C42" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>354</v>
@@ -9895,11 +9901,11 @@
       <c r="J42" t="s">
         <v>356</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>546</v>
       </c>
@@ -9907,7 +9913,7 @@
         <v>346</v>
       </c>
       <c r="C43" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>353</v>
@@ -9930,11 +9936,11 @@
       <c r="J43" t="s">
         <v>356</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>384</v>
       </c>
@@ -9942,7 +9948,7 @@
         <v>348</v>
       </c>
       <c r="C44" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>352</v>
@@ -9965,11 +9971,11 @@
       <c r="J44" t="s">
         <v>357</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>547</v>
       </c>
@@ -9977,7 +9983,7 @@
         <v>347</v>
       </c>
       <c r="C45" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>351</v>
@@ -10000,11 +10006,11 @@
       <c r="J45" t="s">
         <v>357</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>523</v>
       </c>
@@ -10012,7 +10018,7 @@
         <v>373</v>
       </c>
       <c r="C46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>375</v>
@@ -10036,13 +10042,13 @@
         <v>374</v>
       </c>
       <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
         <v>389</v>
       </c>
-      <c r="L46" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>522</v>
       </c>
@@ -10061,16 +10067,16 @@
       <c r="J47" t="s">
         <v>446</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>387</v>
       </c>
       <c r="C48" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>385</v>
@@ -10094,7 +10100,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>393</v>
       </c>
@@ -10102,7 +10108,7 @@
         <v>392</v>
       </c>
       <c r="C49" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>385</v>
@@ -10125,11 +10131,11 @@
       <c r="J49" t="s">
         <v>334</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>399</v>
       </c>
@@ -10137,7 +10143,7 @@
         <v>408</v>
       </c>
       <c r="C50" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>398</v>
@@ -10160,11 +10166,11 @@
       <c r="J50" t="s">
         <v>400</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>411</v>
       </c>
@@ -10172,7 +10178,7 @@
         <v>407</v>
       </c>
       <c r="C51" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>409</v>
@@ -10196,13 +10202,13 @@
         <v>416</v>
       </c>
       <c r="K51" t="s">
+        <v>414</v>
+      </c>
+      <c r="L51" t="s">
         <v>417</v>
       </c>
-      <c r="L51" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>412</v>
       </c>
@@ -10210,7 +10216,7 @@
         <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>410</v>
@@ -10234,13 +10240,13 @@
         <v>400</v>
       </c>
       <c r="K52" t="s">
+        <v>415</v>
+      </c>
+      <c r="L52" t="s">
         <v>417</v>
       </c>
-      <c r="L52" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>541</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>432</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>540</v>
@@ -10266,7 +10272,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>543</v>
       </c>
@@ -10274,7 +10280,7 @@
         <v>433</v>
       </c>
       <c r="C54" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>434</v>
@@ -10292,7 +10298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>539</v>
       </c>
@@ -10300,7 +10306,7 @@
         <v>426</v>
       </c>
       <c r="C55" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>379</v>
@@ -10323,11 +10329,11 @@
       <c r="J55" t="s">
         <v>445</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>439</v>
       </c>
@@ -10344,7 +10350,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>518</v>
       </c>
@@ -10352,7 +10358,7 @@
         <v>441</v>
       </c>
       <c r="C57" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>378</v>
@@ -10376,18 +10382,18 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>514</v>
       </c>
       <c r="B58" t="s">
         <v>442</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>519</v>
       </c>
@@ -10395,7 +10401,7 @@
         <v>447</v>
       </c>
       <c r="C59" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>378</v>
@@ -10419,7 +10425,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>515</v>
       </c>
@@ -10427,7 +10433,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>528</v>
       </c>
@@ -10435,7 +10441,7 @@
         <v>458</v>
       </c>
       <c r="C61" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D61" t="s">
         <v>459</v>
@@ -10458,11 +10464,11 @@
       <c r="J61" t="s">
         <v>334</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>529</v>
       </c>
@@ -10470,7 +10476,7 @@
         <v>472</v>
       </c>
       <c r="C62" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>471</v>
@@ -10493,11 +10499,11 @@
       <c r="J62" t="s">
         <v>334</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>530</v>
       </c>
@@ -10505,7 +10511,7 @@
         <v>470</v>
       </c>
       <c r="C63" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>468</v>
@@ -10529,7 +10535,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>531</v>
       </c>
@@ -10537,7 +10543,7 @@
         <v>475</v>
       </c>
       <c r="C64" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>476</v>
@@ -10561,18 +10567,18 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>486</v>
       </c>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>532</v>
       </c>
@@ -10580,7 +10586,7 @@
         <v>340</v>
       </c>
       <c r="C67" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D67" t="s">
         <v>331</v>
@@ -10604,7 +10610,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>537</v>
       </c>
@@ -10612,7 +10618,7 @@
         <v>463</v>
       </c>
       <c r="C68" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>464</v>
@@ -10635,11 +10641,11 @@
       <c r="J68" t="s">
         <v>334</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>516</v>
       </c>
@@ -10658,11 +10664,11 @@
       <c r="J69" t="s">
         <v>444</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -10670,7 +10676,7 @@
         <v>490</v>
       </c>
       <c r="C70" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>491</v>
@@ -10693,11 +10699,11 @@
       <c r="J70" t="s">
         <v>356</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>517</v>
       </c>
@@ -10716,11 +10722,11 @@
       <c r="J71" t="s">
         <v>444</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>521</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>494</v>
       </c>
       <c r="C72" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>495</v>
@@ -10751,18 +10757,18 @@
       <c r="J72" t="s">
         <v>356</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>501</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="22"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>538</v>
       </c>
@@ -10770,7 +10776,7 @@
         <v>499</v>
       </c>
       <c r="C74" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>498</v>
@@ -10793,11 +10799,11 @@
       <c r="J74" t="s">
         <v>482</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>504</v>
       </c>
@@ -10805,7 +10811,7 @@
         <v>503</v>
       </c>
       <c r="C75" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>505</v>
@@ -10828,11 +10834,11 @@
       <c r="J75" t="s">
         <v>356</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>512</v>
       </c>
@@ -10840,7 +10846,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>511</v>
       </c>
@@ -10848,7 +10854,7 @@
         <v>508</v>
       </c>
       <c r="C77" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>509</v>
@@ -10872,7 +10878,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>510</v>
       </c>
@@ -10880,7 +10886,7 @@
         <v>341</v>
       </c>
       <c r="C78" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D78" t="s">
         <v>332</v>
@@ -10925,18 +10931,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="19" customWidth="1"/>
-    <col min="2" max="3" width="76.5546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
-    <col min="5" max="7" width="17.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="101" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="16.5703125" style="19" customWidth="1"/>
+    <col min="2" max="3" width="76.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5" max="7" width="17.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="101" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>557</v>
       </c>
@@ -10946,7 +10952,7 @@
       <c r="H1" s="87"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>377</v>
       </c>
@@ -10959,7 +10965,7 @@
       <c r="H2" s="87"/>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>378</v>
       </c>
@@ -10972,7 +10978,7 @@
       <c r="H3" s="87"/>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>558</v>
       </c>
@@ -10983,7 +10989,7 @@
       <c r="H4" s="87"/>
       <c r="I4" s="42"/>
     </row>
-    <row r="5" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>559</v>
       </c>
@@ -10994,7 +11000,7 @@
       <c r="H5" s="87"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
@@ -11002,7 +11008,7 @@
       <c r="H6" s="87"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
@@ -11010,15 +11016,15 @@
       <c r="H7" s="87"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>1011</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>1012</v>
-      </c>
       <c r="C8" s="44" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>560</v>
@@ -11039,7 +11045,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>564</v>
       </c>
@@ -11047,7 +11053,7 @@
         <v>567</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -11058,28 +11064,28 @@
         <v>41716.421527777777</v>
       </c>
       <c r="H9" s="89" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I9" s="47" t="s">
         <v>566</v>
       </c>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>564</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>568</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F10" s="50" t="s">
         <v>569</v>
@@ -11088,14 +11094,14 @@
         <v>42454.438194444447</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I10" s="50" t="s">
         <v>570</v>
       </c>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>564</v>
       </c>
@@ -11103,7 +11109,7 @@
         <v>571</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>572</v>
@@ -11118,14 +11124,14 @@
         <v>42117.627083333333</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I11" s="47" t="s">
         <v>575</v>
       </c>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>564</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>576</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>568</v>
@@ -11148,14 +11154,14 @@
         <v>41716.422222222223</v>
       </c>
       <c r="H12" s="90" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>579</v>
       </c>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>564</v>
       </c>
@@ -11163,7 +11169,7 @@
         <v>576</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>568</v>
@@ -11178,14 +11184,14 @@
         <v>41716.422222222223</v>
       </c>
       <c r="H13" s="89" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>582</v>
       </c>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>564</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>583</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>572</v>
@@ -11208,14 +11214,14 @@
         <v>42117.62777777778</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>586</v>
       </c>
       <c r="J14" s="48"/>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>564</v>
       </c>
@@ -11223,7 +11229,7 @@
         <v>587</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>572</v>
@@ -11238,14 +11244,14 @@
         <v>41716.422222222223</v>
       </c>
       <c r="H15" s="89" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I15" s="47" t="s">
         <v>590</v>
       </c>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>564</v>
       </c>
@@ -11253,7 +11259,7 @@
         <v>591</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>568</v>
@@ -11268,14 +11274,14 @@
         <v>41716.422222222223</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>594</v>
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>564</v>
       </c>
@@ -11283,7 +11289,7 @@
         <v>595</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>572</v>
@@ -11298,14 +11304,14 @@
         <v>41716.422222222223</v>
       </c>
       <c r="H17" s="89" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I17" s="47" t="s">
         <v>598</v>
       </c>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>564</v>
       </c>
@@ -11313,7 +11319,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>572</v>
@@ -11328,14 +11334,14 @@
         <v>41716.422222222223</v>
       </c>
       <c r="H18" s="90" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>602</v>
       </c>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>564</v>
       </c>
@@ -11343,7 +11349,7 @@
         <v>603</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D19" s="47" t="s">
         <v>568</v>
@@ -11358,14 +11364,14 @@
         <v>41716.42291666667</v>
       </c>
       <c r="H19" s="89" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I19" s="47" t="s">
         <v>606</v>
       </c>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>564</v>
       </c>
@@ -11373,7 +11379,7 @@
         <v>607</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>572</v>
@@ -11388,14 +11394,14 @@
         <v>41716.42291666667</v>
       </c>
       <c r="H20" s="90" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>610</v>
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>564</v>
       </c>
@@ -11403,7 +11409,7 @@
         <v>611</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>572</v>
@@ -11418,14 +11424,14 @@
         <v>41716.42291666667</v>
       </c>
       <c r="H21" s="89" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>614</v>
       </c>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>564</v>
       </c>
@@ -11433,7 +11439,7 @@
         <v>615</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>572</v>
@@ -11448,14 +11454,14 @@
         <v>41716.421527777777</v>
       </c>
       <c r="H22" s="90" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>618</v>
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>564</v>
       </c>
@@ -11463,7 +11469,7 @@
         <v>619</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>568</v>
@@ -11478,14 +11484,14 @@
         <v>42117.62777777778</v>
       </c>
       <c r="H23" s="89" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I23" s="47" t="s">
         <v>622</v>
       </c>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>623</v>
       </c>
@@ -11493,7 +11499,7 @@
         <v>624</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>572</v>
@@ -11508,14 +11514,14 @@
         <v>41785.473611111112</v>
       </c>
       <c r="H24" s="91" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I24" s="52" t="s">
         <v>618</v>
       </c>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>623</v>
       </c>
@@ -11523,7 +11529,7 @@
         <v>627</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>628</v>
@@ -11538,14 +11544,14 @@
         <v>41785.473611111112</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I25" s="54" t="s">
         <v>631</v>
       </c>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>623</v>
       </c>
@@ -11553,7 +11559,7 @@
         <v>632</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>572</v>
@@ -11568,14 +11574,14 @@
         <v>41785.473611111112</v>
       </c>
       <c r="H26" s="91" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I26" s="52" t="s">
         <v>635</v>
       </c>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>623</v>
       </c>
@@ -11583,7 +11589,7 @@
         <v>636</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>628</v>
@@ -11598,14 +11604,14 @@
         <v>41785.473611111112</v>
       </c>
       <c r="H27" s="92" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I27" s="54" t="s">
         <v>639</v>
       </c>
       <c r="J27" s="48"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>623</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>640</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>628</v>
@@ -11628,14 +11634,14 @@
         <v>41785.473611111112</v>
       </c>
       <c r="H28" s="91" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I28" s="52" t="s">
         <v>642</v>
       </c>
       <c r="J28" s="48"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>623</v>
       </c>
@@ -11643,7 +11649,7 @@
         <v>643</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>572</v>
@@ -11658,14 +11664,14 @@
         <v>41785.474305555559</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I29" s="54" t="s">
         <v>646</v>
       </c>
       <c r="J29" s="48"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>623</v>
       </c>
@@ -11673,7 +11679,7 @@
         <v>647</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>628</v>
@@ -11688,14 +11694,14 @@
         <v>41785.474305555559</v>
       </c>
       <c r="H30" s="91" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I30" s="52" t="s">
         <v>650</v>
       </c>
       <c r="J30" s="48"/>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>623</v>
       </c>
@@ -11703,7 +11709,7 @@
         <v>651</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D31" s="54" t="s">
         <v>572</v>
@@ -11718,14 +11724,14 @@
         <v>41785.474305555559</v>
       </c>
       <c r="H31" s="92" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I31" s="54" t="s">
         <v>654</v>
       </c>
       <c r="J31" s="48"/>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>623</v>
       </c>
@@ -11733,7 +11739,7 @@
         <v>655</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D32" s="52" t="s">
         <v>572</v>
@@ -11748,14 +11754,14 @@
         <v>41785.474305555559</v>
       </c>
       <c r="H32" s="91" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I32" s="52" t="s">
         <v>658</v>
       </c>
       <c r="J32" s="48"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>623</v>
       </c>
@@ -11763,7 +11769,7 @@
         <v>659</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D33" s="54" t="s">
         <v>628</v>
@@ -11778,14 +11784,14 @@
         <v>41785.474305555559</v>
       </c>
       <c r="H33" s="92" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I33" s="54" t="s">
         <v>661</v>
       </c>
       <c r="J33" s="48"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>623</v>
       </c>
@@ -11793,7 +11799,7 @@
         <v>662</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D34" s="52" t="s">
         <v>572</v>
@@ -11808,14 +11814,14 @@
         <v>41785.474999999999</v>
       </c>
       <c r="H34" s="91" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I34" s="52" t="s">
         <v>598</v>
       </c>
       <c r="J34" s="48"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>623</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>665</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D35" s="54" t="s">
         <v>572</v>
@@ -11838,14 +11844,14 @@
         <v>41785.474999999999</v>
       </c>
       <c r="H35" s="92" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I35" s="54" t="s">
         <v>668</v>
       </c>
       <c r="J35" s="48"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>623</v>
       </c>
@@ -11853,7 +11859,7 @@
         <v>669</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D36" s="52" t="s">
         <v>628</v>
@@ -11868,14 +11874,14 @@
         <v>41785.474999999999</v>
       </c>
       <c r="H36" s="91" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I36" s="52" t="s">
         <v>672</v>
       </c>
       <c r="J36" s="48"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>623</v>
       </c>
@@ -11883,7 +11889,7 @@
         <v>673</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D37" s="54" t="s">
         <v>572</v>
@@ -11898,14 +11904,14 @@
         <v>41785.476388888892</v>
       </c>
       <c r="H37" s="92" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I37" s="54" t="s">
         <v>676</v>
       </c>
       <c r="J37" s="48"/>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>623</v>
       </c>
@@ -11913,7 +11919,7 @@
         <v>677</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>572</v>
@@ -11928,14 +11934,14 @@
         <v>41785.475694444445</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I38" s="50" t="s">
         <v>680</v>
       </c>
       <c r="J38" s="48"/>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>623</v>
       </c>
@@ -11943,7 +11949,7 @@
         <v>681</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D39" s="54" t="s">
         <v>628</v>
@@ -11958,14 +11964,14 @@
         <v>41785.475694444445</v>
       </c>
       <c r="H39" s="92" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I39" s="54" t="s">
         <v>661</v>
       </c>
       <c r="J39" s="48"/>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>623</v>
       </c>
@@ -11973,7 +11979,7 @@
         <v>683</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D40" s="50" t="s">
         <v>572</v>
@@ -11988,14 +11994,14 @@
         <v>41785.475694444445</v>
       </c>
       <c r="H40" s="90" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I40" s="50" t="s">
         <v>686</v>
       </c>
       <c r="J40" s="48"/>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>623</v>
       </c>
@@ -12003,7 +12009,7 @@
         <v>687</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D41" s="54" t="s">
         <v>572</v>
@@ -12018,14 +12024,14 @@
         <v>41785.475694444445</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I41" s="54" t="s">
         <v>690</v>
       </c>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>623</v>
       </c>
@@ -12033,7 +12039,7 @@
         <v>691</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D42" s="50" t="s">
         <v>572</v>
@@ -12048,14 +12054,14 @@
         <v>41785.475694444445</v>
       </c>
       <c r="H42" s="90" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I42" s="50" t="s">
         <v>694</v>
       </c>
       <c r="J42" s="48"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55" t="s">
         <v>51</v>
       </c>
@@ -12063,7 +12069,7 @@
         <v>695</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D43" s="56" t="s">
         <v>572</v>
@@ -12078,14 +12084,14 @@
         <v>41792.450694444444</v>
       </c>
       <c r="H43" s="93" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I43" s="56" t="s">
         <v>698</v>
       </c>
       <c r="J43" s="48"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>51</v>
       </c>
@@ -12093,7 +12099,7 @@
         <v>699</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>568</v>
@@ -12108,14 +12114,14 @@
         <v>41792.451388888891</v>
       </c>
       <c r="H44" s="91" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I44" s="52" t="s">
         <v>702</v>
       </c>
       <c r="J44" s="48"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55" t="s">
         <v>51</v>
       </c>
@@ -12123,7 +12129,7 @@
         <v>703</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D45" s="56" t="s">
         <v>572</v>
@@ -12138,14 +12144,14 @@
         <v>41792.451388888891</v>
       </c>
       <c r="H45" s="93" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I45" s="56" t="s">
         <v>706</v>
       </c>
       <c r="J45" s="48"/>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>51</v>
       </c>
@@ -12153,7 +12159,7 @@
         <v>707</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D46" s="52" t="s">
         <v>572</v>
@@ -12168,14 +12174,14 @@
         <v>41792.451388888891</v>
       </c>
       <c r="H46" s="91" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I46" s="52" t="s">
         <v>710</v>
       </c>
       <c r="J46" s="48"/>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55" t="s">
         <v>51</v>
       </c>
@@ -12183,7 +12189,7 @@
         <v>711</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D47" s="56" t="s">
         <v>572</v>
@@ -12198,14 +12204,14 @@
         <v>41792.45208333333</v>
       </c>
       <c r="H47" s="93" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I47" s="56" t="s">
         <v>598</v>
       </c>
       <c r="J47" s="48"/>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
         <v>51</v>
       </c>
@@ -12213,7 +12219,7 @@
         <v>713</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>572</v>
@@ -12228,14 +12234,14 @@
         <v>41792.452777777777</v>
       </c>
       <c r="H48" s="91" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I48" s="52" t="s">
         <v>716</v>
       </c>
       <c r="J48" s="48"/>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
         <v>51</v>
       </c>
@@ -12243,7 +12249,7 @@
         <v>717</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D49" s="56" t="s">
         <v>572</v>
@@ -12258,14 +12264,14 @@
         <v>41792.452777777777</v>
       </c>
       <c r="H49" s="93" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I49" s="56" t="s">
         <v>720</v>
       </c>
       <c r="J49" s="48"/>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51" t="s">
         <v>51</v>
       </c>
@@ -12273,7 +12279,7 @@
         <v>721</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D50" s="52" t="s">
         <v>572</v>
@@ -12288,14 +12294,14 @@
         <v>41792.452777777777</v>
       </c>
       <c r="H50" s="91" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I50" s="52" t="s">
         <v>723</v>
       </c>
       <c r="J50" s="48"/>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55" t="s">
         <v>51</v>
       </c>
@@ -12303,7 +12309,7 @@
         <v>724</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D51" s="56" t="s">
         <v>572</v>
@@ -12318,14 +12324,14 @@
         <v>41792.452777777777</v>
       </c>
       <c r="H51" s="93" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I51" s="56" t="s">
         <v>726</v>
       </c>
       <c r="J51" s="48"/>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>51</v>
       </c>
@@ -12333,7 +12339,7 @@
         <v>727</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D52" s="50" t="s">
         <v>572</v>
@@ -12348,14 +12354,14 @@
         <v>41792.45208333333</v>
       </c>
       <c r="H52" s="90" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I52" s="50" t="s">
         <v>729</v>
       </c>
       <c r="J52" s="48"/>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
         <v>51</v>
       </c>
@@ -12363,7 +12369,7 @@
         <v>730</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D53" s="56" t="s">
         <v>572</v>
@@ -12378,14 +12384,14 @@
         <v>42795.510416666664</v>
       </c>
       <c r="H53" s="93" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I53" s="56" t="s">
         <v>733</v>
       </c>
       <c r="J53" s="48"/>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>51</v>
       </c>
@@ -12393,7 +12399,7 @@
         <v>734</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>572</v>
@@ -12408,14 +12414,14 @@
         <v>41792.451388888891</v>
       </c>
       <c r="H54" s="90" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I54" s="50" t="s">
         <v>694</v>
       </c>
       <c r="J54" s="48"/>
     </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>51</v>
       </c>
@@ -12423,7 +12429,7 @@
         <v>736</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D55" s="56" t="s">
         <v>572</v>
@@ -12438,14 +12444,14 @@
         <v>42117.628472222219</v>
       </c>
       <c r="H55" s="93" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I55" s="56" t="s">
         <v>602</v>
       </c>
       <c r="J55" s="48"/>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>51</v>
       </c>
@@ -12453,7 +12459,7 @@
         <v>739</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D56" s="50" t="s">
         <v>572</v>
@@ -12468,14 +12474,14 @@
         <v>41792.45208333333</v>
       </c>
       <c r="H56" s="90" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I56" s="50" t="s">
         <v>614</v>
       </c>
       <c r="J56" s="48"/>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>51</v>
       </c>
@@ -12483,7 +12489,7 @@
         <v>741</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D57" s="56" t="s">
         <v>572</v>
@@ -12498,14 +12504,14 @@
         <v>41792.453472222223</v>
       </c>
       <c r="H57" s="93" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I57" s="56" t="s">
         <v>706</v>
       </c>
       <c r="J57" s="48"/>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>51</v>
       </c>
@@ -12513,7 +12519,7 @@
         <v>743</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D58" s="50" t="s">
         <v>572</v>
@@ -12528,14 +12534,14 @@
         <v>41792.451388888891</v>
       </c>
       <c r="H58" s="94" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="I58" s="57" t="s">
         <v>746</v>
       </c>
       <c r="J58" s="48"/>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
         <v>51</v>
       </c>
@@ -12543,7 +12549,7 @@
         <v>747</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D59" s="56" t="s">
         <v>572</v>
@@ -12558,14 +12564,14 @@
         <v>41792.45208333333</v>
       </c>
       <c r="H59" s="93" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I59" s="56" t="s">
         <v>749</v>
       </c>
       <c r="J59" s="48"/>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>51</v>
       </c>
@@ -12573,7 +12579,7 @@
         <v>750</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D60" s="50" t="s">
         <v>572</v>
@@ -12588,14 +12594,14 @@
         <v>41792.452777777777</v>
       </c>
       <c r="H60" s="90" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I60" s="50" t="s">
         <v>661</v>
       </c>
       <c r="J60" s="48"/>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
         <v>51</v>
       </c>
@@ -12603,7 +12609,7 @@
         <v>753</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D61" s="56" t="s">
         <v>572</v>
@@ -12618,14 +12624,14 @@
         <v>41792.452777777777</v>
       </c>
       <c r="H61" s="93" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I61" s="56" t="s">
         <v>755</v>
       </c>
       <c r="J61" s="48"/>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
         <v>51</v>
       </c>
@@ -12633,7 +12639,7 @@
         <v>756</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D62" s="50" t="s">
         <v>572</v>
@@ -12648,14 +12654,14 @@
         <v>41792.453472222223</v>
       </c>
       <c r="H62" s="90" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I62" s="50" t="s">
         <v>759</v>
       </c>
       <c r="J62" s="48"/>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
         <v>51</v>
       </c>
@@ -12663,7 +12669,7 @@
         <v>760</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D63" s="56" t="s">
         <v>572</v>
@@ -12678,14 +12684,14 @@
         <v>41792.45208333333</v>
       </c>
       <c r="H63" s="93" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I63" s="56" t="s">
         <v>762</v>
       </c>
       <c r="J63" s="48"/>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="51" t="s">
         <v>763</v>
       </c>
@@ -12693,7 +12699,7 @@
         <v>764</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D64" s="52" t="s">
         <v>572</v>
@@ -12708,14 +12714,14 @@
         <v>41884.644444444442</v>
       </c>
       <c r="H64" s="91" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I64" s="52" t="s">
         <v>733</v>
       </c>
       <c r="J64" s="48"/>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
         <v>763</v>
       </c>
@@ -12723,7 +12729,7 @@
         <v>766</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D65" s="59" t="s">
         <v>572</v>
@@ -12738,14 +12744,14 @@
         <v>41884.644444444442</v>
       </c>
       <c r="H65" s="95" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I65" s="59" t="s">
         <v>768</v>
       </c>
       <c r="J65" s="48"/>
     </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
         <v>763</v>
       </c>
@@ -12753,7 +12759,7 @@
         <v>769</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D66" s="52" t="s">
         <v>572</v>
@@ -12768,14 +12774,14 @@
         <v>41884.645138888889</v>
       </c>
       <c r="H66" s="91" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I66" s="52" t="s">
         <v>698</v>
       </c>
       <c r="J66" s="48"/>
     </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
         <v>763</v>
       </c>
@@ -12783,7 +12789,7 @@
         <v>772</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D67" s="59" t="s">
         <v>572</v>
@@ -12798,14 +12804,14 @@
         <v>41884.645138888889</v>
       </c>
       <c r="H67" s="95" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I67" s="59" t="s">
         <v>775</v>
       </c>
       <c r="J67" s="48"/>
     </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="51" t="s">
         <v>763</v>
       </c>
@@ -12813,7 +12819,7 @@
         <v>776</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D68" s="52" t="s">
         <v>572</v>
@@ -12828,14 +12834,14 @@
         <v>41884.645138888889</v>
       </c>
       <c r="H68" s="91" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I68" s="52" t="s">
         <v>610</v>
       </c>
       <c r="J68" s="48"/>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
         <v>763</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>779</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D69" s="59" t="s">
         <v>572</v>
@@ -12858,14 +12864,14 @@
         <v>41884.645138888889</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I69" s="59" t="s">
         <v>694</v>
       </c>
       <c r="J69" s="48"/>
     </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="51" t="s">
         <v>763</v>
       </c>
@@ -12873,7 +12879,7 @@
         <v>782</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>572</v>
@@ -12888,11 +12894,11 @@
         <v>41884.645138888889</v>
       </c>
       <c r="H70" s="91" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I70" s="52"/>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="s">
         <v>763</v>
       </c>
@@ -12900,7 +12906,7 @@
         <v>784</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D71" s="59" t="s">
         <v>572</v>
@@ -12915,14 +12921,14 @@
         <v>41884.644444444442</v>
       </c>
       <c r="H71" s="95" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I71" s="59" t="s">
         <v>694</v>
       </c>
       <c r="J71" s="48"/>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
         <v>787</v>
       </c>
@@ -12930,7 +12936,7 @@
         <v>788</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D72" s="61" t="s">
         <v>572</v>
@@ -12945,14 +12951,14 @@
         <v>41873.546527777777</v>
       </c>
       <c r="H72" s="96" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I72" s="61" t="s">
         <v>762</v>
       </c>
       <c r="J72" s="48"/>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="51" t="s">
         <v>787</v>
       </c>
@@ -12960,7 +12966,7 @@
         <v>791</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>572</v>
@@ -12975,14 +12981,14 @@
         <v>41873.546527777777</v>
       </c>
       <c r="H73" s="91" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I73" s="52" t="s">
         <v>794</v>
       </c>
       <c r="J73" s="48"/>
     </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="s">
         <v>787</v>
       </c>
@@ -12990,7 +12996,7 @@
         <v>795</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D74" s="61" t="s">
         <v>572</v>
@@ -13005,14 +13011,14 @@
         <v>41873.547222222223</v>
       </c>
       <c r="H74" s="96" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I74" s="61" t="s">
         <v>733</v>
       </c>
       <c r="J74" s="48"/>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
         <v>787</v>
       </c>
@@ -13020,7 +13026,7 @@
         <v>798</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>572</v>
@@ -13035,14 +13041,14 @@
         <v>41873.547222222223</v>
       </c>
       <c r="H75" s="97" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I75" s="62" t="s">
         <v>800</v>
       </c>
       <c r="J75" s="48"/>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
         <v>787</v>
       </c>
@@ -13050,7 +13056,7 @@
         <v>801</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D76" s="61" t="s">
         <v>572</v>
@@ -13065,14 +13071,14 @@
         <v>41873.547222222223</v>
       </c>
       <c r="H76" s="96" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I76" s="61" t="s">
         <v>804</v>
       </c>
       <c r="J76" s="48"/>
     </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="51" t="s">
         <v>787</v>
       </c>
@@ -13080,7 +13086,7 @@
         <v>805</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D77" s="52" t="s">
         <v>572</v>
@@ -13095,14 +13101,14 @@
         <v>41873.546527777777</v>
       </c>
       <c r="H77" s="91" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I77" s="52" t="s">
         <v>808</v>
       </c>
       <c r="J77" s="48"/>
     </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
         <v>787</v>
       </c>
@@ -13110,7 +13116,7 @@
         <v>809</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D78" s="61" t="s">
         <v>568</v>
@@ -13125,14 +13131,14 @@
         <v>42117.629166666666</v>
       </c>
       <c r="H78" s="96" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I78" s="61" t="s">
         <v>812</v>
       </c>
       <c r="J78" s="48"/>
     </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="51" t="s">
         <v>787</v>
       </c>
@@ -13140,7 +13146,7 @@
         <v>813</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D79" s="52" t="s">
         <v>572</v>
@@ -13155,14 +13161,14 @@
         <v>41873.546527777777</v>
       </c>
       <c r="H79" s="91" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I79" s="52" t="s">
         <v>816</v>
       </c>
       <c r="J79" s="48"/>
     </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="63" t="s">
         <v>817</v>
       </c>
@@ -13170,7 +13176,7 @@
         <v>818</v>
       </c>
       <c r="C80" s="63" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D80" s="64" t="s">
         <v>572</v>
@@ -13185,14 +13191,14 @@
         <v>41873.552777777775</v>
       </c>
       <c r="H80" s="98" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I80" s="64" t="s">
         <v>819</v>
       </c>
       <c r="J80" s="48"/>
     </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
         <v>817</v>
       </c>
@@ -13200,7 +13206,7 @@
         <v>820</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D81" s="52" t="s">
         <v>572</v>
@@ -13215,14 +13221,14 @@
         <v>41873.552777777775</v>
       </c>
       <c r="H81" s="91" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I81" s="52" t="s">
         <v>822</v>
       </c>
       <c r="J81" s="48"/>
     </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="63" t="s">
         <v>817</v>
       </c>
@@ -13230,7 +13236,7 @@
         <v>823</v>
       </c>
       <c r="C82" s="63" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D82" s="64" t="s">
         <v>572</v>
@@ -13245,14 +13251,14 @@
         <v>41873.552777777775</v>
       </c>
       <c r="H82" s="98" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I82" s="64" t="s">
         <v>819</v>
       </c>
       <c r="J82" s="48"/>
     </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="51" t="s">
         <v>817</v>
       </c>
@@ -13260,7 +13266,7 @@
         <v>825</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D83" s="52" t="s">
         <v>572</v>
@@ -13275,14 +13281,14 @@
         <v>41873.553472222222</v>
       </c>
       <c r="H83" s="91" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I83" s="52" t="s">
         <v>828</v>
       </c>
       <c r="J83" s="48"/>
     </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="63" t="s">
         <v>817</v>
       </c>
@@ -13290,7 +13296,7 @@
         <v>829</v>
       </c>
       <c r="C84" s="63" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D84" s="64" t="s">
         <v>572</v>
@@ -13305,14 +13311,14 @@
         <v>41873.553472222222</v>
       </c>
       <c r="H84" s="98" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I84" s="64" t="s">
         <v>831</v>
       </c>
       <c r="J84" s="48"/>
     </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="51" t="s">
         <v>817</v>
       </c>
@@ -13320,7 +13326,7 @@
         <v>832</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D85" s="52" t="s">
         <v>572</v>
@@ -13335,14 +13341,14 @@
         <v>41873.553472222222</v>
       </c>
       <c r="H85" s="91" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I85" s="52" t="s">
         <v>834</v>
       </c>
       <c r="J85" s="48"/>
     </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="63" t="s">
         <v>817</v>
       </c>
@@ -13350,7 +13356,7 @@
         <v>835</v>
       </c>
       <c r="C86" s="63" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D86" s="64" t="s">
         <v>572</v>
@@ -13365,14 +13371,14 @@
         <v>41873.552777777775</v>
       </c>
       <c r="H86" s="98" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I86" s="64" t="s">
         <v>759</v>
       </c>
       <c r="J86" s="48"/>
     </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="51" t="s">
         <v>817</v>
       </c>
@@ -13380,7 +13386,7 @@
         <v>837</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D87" s="52" t="s">
         <v>572</v>
@@ -13395,14 +13401,14 @@
         <v>41873.552777777775</v>
       </c>
       <c r="H87" s="91" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I87" s="52" t="s">
         <v>733</v>
       </c>
       <c r="J87" s="48"/>
     </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="65" t="s">
         <v>840</v>
       </c>
@@ -13410,7 +13416,7 @@
         <v>841</v>
       </c>
       <c r="C88" s="65" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D88" s="66" t="s">
         <v>572</v>
@@ -13425,14 +13431,14 @@
         <v>41873.54791666667</v>
       </c>
       <c r="H88" s="99" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I88" s="66" t="s">
         <v>844</v>
       </c>
       <c r="J88" s="48"/>
     </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="51" t="s">
         <v>840</v>
       </c>
@@ -13440,7 +13446,7 @@
         <v>503</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D89" s="52" t="s">
         <v>572</v>
@@ -13455,14 +13461,14 @@
         <v>41873.54791666667</v>
       </c>
       <c r="H89" s="91" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I89" s="52" t="s">
         <v>846</v>
       </c>
       <c r="J89" s="48"/>
     </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="65" t="s">
         <v>840</v>
       </c>
@@ -13470,7 +13476,7 @@
         <v>847</v>
       </c>
       <c r="C90" s="65" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D90" s="66" t="s">
         <v>568</v>
@@ -13485,14 +13491,14 @@
         <v>41873.54791666667</v>
       </c>
       <c r="H90" s="99" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I90" s="66" t="s">
         <v>598</v>
       </c>
       <c r="J90" s="48"/>
     </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="51" t="s">
         <v>840</v>
       </c>
@@ -13500,7 +13506,7 @@
         <v>850</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D91" s="52" t="s">
         <v>572</v>
@@ -13515,14 +13521,14 @@
         <v>41873.548611111109</v>
       </c>
       <c r="H91" s="91" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I91" s="52" t="s">
         <v>822</v>
       </c>
       <c r="J91" s="48"/>
     </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="65" t="s">
         <v>840</v>
       </c>
@@ -13530,7 +13536,7 @@
         <v>853</v>
       </c>
       <c r="C92" s="65" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D92" s="66" t="s">
         <v>572</v>
@@ -13545,14 +13551,14 @@
         <v>42117.630555555559</v>
       </c>
       <c r="H92" s="99" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I92" s="66" t="s">
         <v>858</v>
       </c>
       <c r="J92" s="48"/>
     </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49" t="s">
         <v>840</v>
       </c>
@@ -13560,7 +13566,7 @@
         <v>854</v>
       </c>
       <c r="C93" s="49" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D93" s="50" t="s">
         <v>628</v>
@@ -13575,22 +13581,22 @@
         <v>42117.629861111112</v>
       </c>
       <c r="H93" s="90" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I93" s="50" t="s">
         <v>856</v>
       </c>
       <c r="J93" s="48"/>
     </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="65" t="s">
         <v>840</v>
       </c>
       <c r="B94" s="65" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C94" s="65" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D94" s="66" t="s">
         <v>572</v>
@@ -13605,14 +13611,14 @@
         <v>41873.547222222223</v>
       </c>
       <c r="H94" s="99" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I94" s="66" t="s">
         <v>860</v>
       </c>
       <c r="J94" s="48"/>
     </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="67" t="s">
         <v>861</v>
       </c>
@@ -13620,7 +13626,7 @@
         <v>862</v>
       </c>
       <c r="C95" s="67" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D95" s="68" t="s">
         <v>572</v>
@@ -13635,14 +13641,14 @@
         <v>41873.551388888889</v>
       </c>
       <c r="H95" s="100" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I95" s="68" t="s">
         <v>639</v>
       </c>
       <c r="J95" s="48"/>
     </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="51" t="s">
         <v>861</v>
       </c>
@@ -13650,7 +13656,7 @@
         <v>865</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D96" s="52" t="s">
         <v>572</v>
@@ -13665,14 +13671,14 @@
         <v>41873.551388888889</v>
       </c>
       <c r="H96" s="91" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I96" s="52" t="s">
         <v>762</v>
       </c>
       <c r="J96" s="48"/>
     </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="67" t="s">
         <v>861</v>
       </c>
@@ -13680,7 +13686,7 @@
         <v>867</v>
       </c>
       <c r="C97" s="67" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D97" s="68" t="s">
         <v>572</v>
@@ -13695,14 +13701,14 @@
         <v>41873.551388888889</v>
       </c>
       <c r="H97" s="100" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I97" s="68" t="s">
         <v>690</v>
       </c>
       <c r="J97" s="48"/>
     </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="51" t="s">
         <v>861</v>
       </c>
@@ -13710,7 +13716,7 @@
         <v>868</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D98" s="52" t="s">
         <v>628</v>
@@ -13725,14 +13731,14 @@
         <v>41873.552083333336</v>
       </c>
       <c r="H98" s="91" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I98" s="52" t="s">
         <v>694</v>
       </c>
       <c r="J98" s="48"/>
     </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="67" t="s">
         <v>861</v>
       </c>
@@ -13740,7 +13746,7 @@
         <v>871</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D99" s="68" t="s">
         <v>572</v>
@@ -13755,14 +13761,14 @@
         <v>41873.552083333336</v>
       </c>
       <c r="H99" s="100" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I99" s="68" t="s">
         <v>873</v>
       </c>
       <c r="J99" s="48"/>
     </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="51" t="s">
         <v>861</v>
       </c>
@@ -13783,14 +13789,14 @@
         <v>41873.552083333336</v>
       </c>
       <c r="H100" s="91" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I100" s="52" t="s">
         <v>661</v>
       </c>
       <c r="J100" s="48"/>
     </row>
-    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="67" t="s">
         <v>861</v>
       </c>
@@ -13811,14 +13817,14 @@
         <v>41873.552083333336</v>
       </c>
       <c r="H101" s="100" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I101" s="68" t="s">
         <v>729</v>
       </c>
       <c r="J101" s="48"/>
     </row>
-    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="69" t="s">
         <v>861</v>
       </c>
@@ -13835,7 +13841,7 @@
         <v>41873.551388888889</v>
       </c>
       <c r="H102" s="101" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>882</v>
@@ -13861,13 +13867,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="95.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>257</v>
       </c>
@@ -13875,7 +13881,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>535</v>
       </c>
@@ -13883,7 +13889,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>533</v>
       </c>
@@ -13891,7 +13897,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>405</v>
       </c>
@@ -13899,7 +13905,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>542</v>
       </c>
@@ -13907,7 +13913,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -13915,7 +13921,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -13923,7 +13929,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -13931,7 +13937,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -13939,7 +13945,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -13947,7 +13953,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -13955,7 +13961,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>266</v>
       </c>
@@ -13963,7 +13969,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>548</v>
       </c>
@@ -13971,7 +13977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -13979,7 +13985,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>478</v>
       </c>
@@ -13987,7 +13993,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>404</v>
       </c>
@@ -14014,15 +14020,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -14036,12 +14042,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>73</v>
@@ -14050,7 +14056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14064,7 +14070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -14078,7 +14084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -14092,7 +14098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -14106,7 +14112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -14134,7 +14140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -14148,7 +14154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -14162,7 +14168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -14176,7 +14182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -14190,7 +14196,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -14204,7 +14210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -14218,7 +14224,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -14232,7 +14238,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -14246,7 +14252,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -14260,7 +14266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -14274,7 +14280,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -14288,7 +14294,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -14302,7 +14308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -14316,7 +14322,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -14327,7 +14333,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -14338,7 +14344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -14349,7 +14355,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -14360,7 +14366,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -14371,7 +14377,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -14379,7 +14385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -14401,7 +14407,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -14412,7 +14418,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -14423,7 +14429,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -14437,7 +14443,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -14448,7 +14454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -14459,7 +14465,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -14470,7 +14476,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -14481,7 +14487,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -14492,7 +14498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -14503,7 +14509,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -14514,7 +14520,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -14528,7 +14534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -14542,7 +14548,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -14553,7 +14559,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -14567,7 +14573,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>156</v>
       </c>
@@ -14581,7 +14587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -14595,7 +14601,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -14609,7 +14615,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -14623,7 +14629,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -14637,7 +14643,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -14651,7 +14657,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -14665,7 +14671,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -14679,7 +14685,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -14693,7 +14699,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -14707,7 +14713,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -14721,7 +14727,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>182</v>
       </c>
@@ -14735,7 +14741,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>185</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -14763,7 +14769,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -14777,7 +14783,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -14791,7 +14797,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -14805,7 +14811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>199</v>
       </c>
@@ -14816,7 +14822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -14827,7 +14833,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -14855,13 +14861,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="13"/>
+    <col min="1" max="2" width="9.140625" style="13"/>
     <col min="3" max="3" width="71" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>226</v>
       </c>
@@ -14872,7 +14878,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>20181130</v>
       </c>
@@ -14883,7 +14889,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>20181211</v>
       </c>
@@ -14894,7 +14900,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>20181211</v>
       </c>
